--- a/MDFS_20 06 22-1.xlsx
+++ b/MDFS_20 06 22-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webdrive.strath.ac.uk/home/82/hwb14182/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5D735-7600-4074-AD6C-C21198B48669}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907DFB04-916A-4BE1-81B9-C09099EA1408}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4086,9 +4086,6 @@
     <t>131</t>
   </si>
   <si>
-    <t xml:space="preserve">19.496 </t>
-  </si>
-  <si>
     <t xml:space="preserve">ENGINEERING APPLICATIONS II: INDIVIDUAL PROJECT </t>
   </si>
   <si>
@@ -4105,9 +4102,6 @@
   </si>
   <si>
     <t>300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.520 </t>
   </si>
   <si>
     <t>ENGINEERING APPLICATIONS III: GROUP PROJECT</t>
@@ -4905,6 +4899,12 @@
   </si>
   <si>
     <t xml:space="preserve">19496, EE410 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19496 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19520 </t>
   </si>
 </sst>
 </file>
@@ -5475,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8831,10 +8831,10 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>83</v>
@@ -8849,16 +8849,16 @@
         <v>149</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>149</v>
@@ -8873,15 +8873,15 @@
         <v>58</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>562</v>
+        <v>791</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>83</v>
@@ -8896,19 +8896,19 @@
         <v>316</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="N62" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>149</v>
@@ -8917,15 +8917,15 @@
         <v>372</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>76</v>
@@ -8940,22 +8940,22 @@
         <v>30</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>28</v>
@@ -8975,10 +8975,10 @@
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>28</v>
@@ -8993,25 +8993,25 @@
         <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="N64" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>37</v>
@@ -9031,10 +9031,10 @@
     </row>
     <row r="65" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>28</v>
@@ -9049,25 +9049,25 @@
         <v>105</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="N65" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>37</v>
@@ -9082,12 +9082,12 @@
         <v>58</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>287</v>
@@ -9105,22 +9105,22 @@
         <v>316</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>193</v>
@@ -9135,15 +9135,15 @@
         <v>243</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>76</v>
@@ -9158,22 +9158,22 @@
         <v>316</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="M67" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>312</v>
@@ -9193,10 +9193,10 @@
     </row>
     <row r="68" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>28</v>
@@ -9208,25 +9208,25 @@
         <v>316</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="J68" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="M68" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="O68" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>58</v>
@@ -9238,7 +9238,7 @@
         <v>58</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -9274,37 +9274,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9324,7 +9324,7 @@
         <v>12.5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H2" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9348,7 +9348,7 @@
         <v>12.5</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H3" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9372,7 +9372,7 @@
         <v>12.5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H4" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9396,7 +9396,7 @@
         <v>12.5</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H5" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9420,7 +9420,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H6" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9444,7 +9444,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H7" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9468,7 +9468,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9492,7 +9492,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H9" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9516,7 +9516,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H10" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9540,7 +9540,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H11" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9564,7 +9564,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H12" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9588,7 +9588,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H13" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9612,7 +9612,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H14" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9636,7 +9636,7 @@
         <v>75</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
@@ -9663,7 +9663,7 @@
         <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
@@ -9690,7 +9690,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -9717,7 +9717,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
@@ -9744,7 +9744,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H19" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9768,7 +9768,7 @@
         <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G20" s="7">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G21" s="7">
         <v>1.5</v>
@@ -9822,7 +9822,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H22" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9846,7 +9846,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H23" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9870,7 +9870,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H24" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9894,7 +9894,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H25" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9918,7 +9918,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H26" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9942,7 +9942,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H27" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9966,7 +9966,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H28" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -9990,7 +9990,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H29" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10014,7 +10014,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H30" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10038,7 +10038,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G31" s="7">
         <v>2</v>
@@ -10065,7 +10065,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H32" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10089,7 +10089,7 @@
         <v>15</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H33" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10113,7 +10113,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G34" s="7">
         <v>1.5</v>
@@ -10140,7 +10140,7 @@
         <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G35" s="7">
         <v>1.5</v>
@@ -10167,7 +10167,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H36" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10191,7 +10191,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H37" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10215,7 +10215,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H38" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10239,7 +10239,7 @@
         <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G39" s="7">
         <v>3</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -10392,7 +10392,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -10419,7 +10419,7 @@
         <v>75</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G47" s="7">
         <v>2</v>
@@ -10446,7 +10446,7 @@
         <v>15</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H48" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10470,7 +10470,7 @@
         <v>60</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G49" s="7">
         <v>3</v>
@@ -10497,7 +10497,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H50" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10521,7 +10521,7 @@
         <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H51" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10545,7 +10545,7 @@
         <v>70</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G52" s="7">
         <v>2</v>
@@ -10572,7 +10572,7 @@
         <v>15</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H53" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10596,7 +10596,7 @@
         <v>15</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H54" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10620,7 +10620,7 @@
         <v>60</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G55" s="7">
         <v>2</v>
@@ -10647,7 +10647,7 @@
         <v>6.66</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H56" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10671,7 +10671,7 @@
         <v>6.66</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H57" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10695,7 +10695,7 @@
         <v>6.66</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H58" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10719,7 +10719,7 @@
         <v>6.66</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H59" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10743,7 +10743,7 @@
         <v>6.66</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H60" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10767,7 +10767,7 @@
         <v>6.66</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H61" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10788,7 +10788,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
@@ -10815,7 +10815,7 @@
         <v>3.33</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H63" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10839,7 +10839,7 @@
         <v>3.33</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H64" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10863,7 +10863,7 @@
         <v>3.33</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H65" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10887,7 +10887,7 @@
         <v>3.33</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H66" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10911,7 +10911,7 @@
         <v>3.33</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H67" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10935,7 +10935,7 @@
         <v>3.33</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H68" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H69" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10983,7 +10983,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H70" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11007,7 +11007,7 @@
         <v>3.33</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G71" s="7">
         <v>2</v>
@@ -11034,7 +11034,7 @@
         <v>3.33</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G72" s="7">
         <v>2</v>
@@ -11061,7 +11061,7 @@
         <v>3.33</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G73" s="7">
         <v>2</v>
@@ -11088,7 +11088,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -11115,7 +11115,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H75" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11139,7 +11139,7 @@
         <v>20</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H76" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11163,7 +11163,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H77" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11187,7 +11187,7 @@
         <v>60</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
@@ -11214,7 +11214,7 @@
         <v>20</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H79" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11238,7 +11238,7 @@
         <v>20</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H80" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11262,7 +11262,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G81" s="7">
         <v>2</v>
@@ -11289,7 +11289,7 @@
         <v>5</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H82" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11313,7 +11313,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H83" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11337,7 +11337,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H84" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11361,7 +11361,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H85" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11385,7 +11385,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H86" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11409,7 +11409,7 @@
         <v>60</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G87" s="7">
         <v>2</v>
@@ -11436,7 +11436,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G88" s="7">
         <v>1</v>
@@ -11463,7 +11463,7 @@
         <v>15</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H89" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11487,7 +11487,7 @@
         <v>15</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H90" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11511,7 +11511,7 @@
         <v>60</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G91" s="7">
         <v>2</v>
@@ -11538,7 +11538,7 @@
         <v>15</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H92" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11562,7 +11562,7 @@
         <v>20</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H93" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11601,7 +11601,7 @@
         <v>50</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G95" s="7">
         <v>2</v>
@@ -11628,7 +11628,7 @@
         <v>5</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H96" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11646,7 +11646,7 @@
         <v>5</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H97" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11670,7 +11670,7 @@
         <v>15</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H98" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11694,7 +11694,7 @@
         <v>4</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H99" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11718,7 +11718,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H100" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11742,7 +11742,7 @@
         <v>12</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H101" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11760,7 +11760,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H102" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11784,7 +11784,7 @@
         <v>60</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G103" s="7">
         <v>2</v>
@@ -11811,7 +11811,7 @@
         <v>5</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H104" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11835,7 +11835,7 @@
         <v>5</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H105" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11859,7 +11859,7 @@
         <v>5</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H106" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11883,7 +11883,7 @@
         <v>5</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H107" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11907,7 +11907,7 @@
         <v>5</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H108" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11931,7 +11931,7 @@
         <v>5</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H109" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11955,7 +11955,7 @@
         <v>10</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H110" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -11979,7 +11979,7 @@
         <v>60</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G111" s="7">
         <v>2</v>
@@ -12006,7 +12006,7 @@
         <v>20</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H112" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12030,7 +12030,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H113" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12054,7 +12054,7 @@
         <v>15</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H114" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12078,7 +12078,7 @@
         <v>40</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G115" s="7">
         <v>2</v>
@@ -12105,7 +12105,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H116" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12129,7 +12129,7 @@
         <v>20</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H117" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12153,7 +12153,7 @@
         <v>10</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H118" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12177,7 +12177,7 @@
         <v>20</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H119" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H120" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12225,7 +12225,7 @@
         <v>20</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H121" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12249,7 +12249,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H122" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12273,7 +12273,7 @@
         <v>40</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H123" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12291,7 +12291,7 @@
         <v>15</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H124" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12309,7 +12309,7 @@
         <v>15</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H125" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12333,7 +12333,7 @@
         <v>60</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G126" s="7">
         <v>2</v>
@@ -12357,14 +12357,14 @@
         <v>7</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H127" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>60</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -12381,7 +12381,7 @@
         <v>9</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H128" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12402,7 +12402,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H129" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12423,7 +12423,7 @@
         <v>11</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H130" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12444,7 +12444,7 @@
         <v>4</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H131" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12465,7 +12465,7 @@
         <v>7</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H132" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12486,7 +12486,7 @@
         <v>11</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H133" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12495,7 +12495,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>422</v>
@@ -12510,7 +12510,7 @@
         <v>25</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G134" s="7">
         <v>1.5</v>
@@ -12522,7 +12522,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>422</v>
@@ -12537,7 +12537,7 @@
         <v>55</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G135" s="7">
         <v>1.5</v>
@@ -12549,7 +12549,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>430</v>
@@ -12564,7 +12564,7 @@
         <v>5</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H136" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>430</v>
@@ -12588,7 +12588,7 @@
         <v>5</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H137" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12597,7 +12597,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>430</v>
@@ -12612,7 +12612,7 @@
         <v>5</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H138" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12621,7 +12621,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>430</v>
@@ -12636,7 +12636,7 @@
         <v>5</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H139" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12645,7 +12645,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>422</v>
@@ -12660,7 +12660,7 @@
         <v>40</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G140" s="7">
         <v>2</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>422</v>
@@ -12687,7 +12687,7 @@
         <v>40</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G141" s="7">
         <v>2</v>
@@ -12699,7 +12699,7 @@
     </row>
     <row r="142" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>430</v>
@@ -12711,19 +12711,19 @@
         <v>5</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H142" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>80</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>430</v>
@@ -12735,7 +12735,7 @@
         <v>9</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H143" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12744,7 +12744,7 @@
     </row>
     <row r="144" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>430</v>
@@ -12756,7 +12756,7 @@
         <v>5</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H144" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="145" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>430</v>
@@ -12777,7 +12777,7 @@
         <v>9</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H145" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="146" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>430</v>
@@ -12798,7 +12798,7 @@
         <v>2</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H146" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>422</v>
@@ -12822,7 +12822,7 @@
         <v>40</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G147" s="7">
         <v>1.5</v>
@@ -12834,7 +12834,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>422</v>
@@ -12849,7 +12849,7 @@
         <v>50</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G148" s="7">
         <v>2</v>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>430</v>
@@ -12876,7 +12876,7 @@
         <v>5</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H149" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12885,7 +12885,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>430</v>
@@ -12900,7 +12900,7 @@
         <v>5</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H150" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>422</v>
@@ -12924,7 +12924,7 @@
         <v>60</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G151" s="7">
         <v>2</v>
@@ -12936,7 +12936,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>430</v>
@@ -12951,19 +12951,19 @@
         <v>10</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H152" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
       <c r="I152" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>430</v>
@@ -12975,7 +12975,7 @@
         <v>5</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H153" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -12984,7 +12984,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>430</v>
@@ -12996,7 +12996,7 @@
         <v>15</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H154" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -13005,7 +13005,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>430</v>
@@ -13017,7 +13017,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H155" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -13026,7 +13026,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>430</v>
@@ -13038,7 +13038,7 @@
         <v>5</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H156" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="157" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>430</v>
@@ -13056,19 +13056,19 @@
         <v>50</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H157" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>422</v>
@@ -13083,7 +13083,7 @@
         <v>50</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G158" s="7">
         <v>2</v>
@@ -13095,7 +13095,7 @@
     </row>
     <row r="159" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>422</v>
@@ -13104,7 +13104,7 @@
         <v>50</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G159" s="11">
         <v>2</v>
@@ -13114,12 +13114,12 @@
         <v>100</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>430</v>
@@ -13128,7 +13128,7 @@
         <v>35</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H160" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -13137,7 +13137,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>430</v>
@@ -13146,7 +13146,7 @@
         <v>15</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H161" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -13181,16 +13181,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1" t="s">
         <v>699</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>700</v>
-      </c>
-      <c r="D1" t="s">
-        <v>701</v>
-      </c>
-      <c r="F1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -13206,10 +13206,10 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13225,7 +13225,7 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -13309,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -13344,17 +13344,17 @@
       </c>
       <c r="B12" t="str">
         <f>IF(COUNTIF(Table1[Code], A12) &gt; 0, "Done", "")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="C12">
         <f>IFERROR(VLOOKUP(A12,Table3[],8, FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>704</v>
+      </c>
+      <c r="E12" t="s">
         <v>706</v>
-      </c>
-      <c r="E12" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -13363,17 +13363,17 @@
       </c>
       <c r="B13" t="str">
         <f>IF(COUNTIF(Table1[Code], A13) &gt; 0, "Done", "")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="C13">
         <f>IFERROR(VLOOKUP(A13,Table3[],8, FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -13389,7 +13389,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -13421,12 +13421,12 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B17" t="str">
         <f>IF(COUNTIF(Table1[Code], A17) &gt; 0, "Done", "")</f>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B18" t="str">
         <f>IF(COUNTIF(Table1[Code], A18) &gt; 0, "Done", "")</f>
@@ -13452,7 +13452,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B19" t="str">
         <f>IF(COUNTIF(Table1[Code], A19) &gt; 0, "Done", "")</f>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B20" t="str">
         <f>IF(COUNTIF(Table1[Code], A20) &gt; 0, "Done", "")</f>
@@ -13478,7 +13478,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B21" t="str">
         <f>IF(COUNTIF(Table1[Code], A21) &gt; 0, "Done", "")</f>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B22" t="str">
         <f>IF(COUNTIF(Table1[Code], A22) &gt; 0, "Done", "")</f>
@@ -13504,7 +13504,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B23" t="str">
         <f>IF(COUNTIF(Table1[Code], A23) &gt; 0, "Done", "")</f>
@@ -13528,7 +13528,7 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -13557,12 +13557,12 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B27" t="str">
         <f>IF(COUNTIF(Table1[Code], A27) &gt; 0, "Done", "")</f>
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -13602,7 +13602,7 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -13620,7 +13620,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B31" t="str">
         <f>IF(COUNTIF(Table1[Code], A31) &gt; 0, "Done", "")</f>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -13663,7 +13663,7 @@
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -13711,12 +13711,12 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B37" t="str">
         <f>IF(COUNTIF(Table1[Code], A37) &gt; 0, "Done", "")</f>
@@ -13727,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -13743,12 +13743,12 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B39" t="str">
         <f>IF(COUNTIF(Table1[Code], A39) &gt; 0, "Done", "")</f>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -13852,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -13884,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -13900,12 +13900,12 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B49" t="str">
         <f>IF(COUNTIF(Table1[Code], A49) &gt; 0, "Done", "")</f>
@@ -13929,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -13977,7 +13977,7 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -14057,12 +14057,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B59" t="str">
         <f>IF(COUNTIF(Table1[Code], A59) &gt; 0, "Done", "")</f>
@@ -14075,7 +14075,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B60" t="str">
         <f>IF(COUNTIF(Table1[Code], A60) &gt; 0, "Done", "")</f>
@@ -14088,7 +14088,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B61" t="str">
         <f>IF(COUNTIF(Table1[Code], A61) &gt; 0, "Done", "")</f>
@@ -14101,7 +14101,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B62" t="str">
         <f>IF(COUNTIF(Table1[Code], A62) &gt; 0, "Done", "")</f>
@@ -14114,7 +14114,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B63" t="str">
         <f>IF(COUNTIF(Table1[Code], A63) &gt; 0, "Done", "")</f>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B64" t="str">
         <f>IF(COUNTIF(Table1[Code], A64) &gt; 0, "Done", "")</f>
@@ -14140,7 +14140,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B65" t="str">
         <f>IF(COUNTIF(Table1[Code], A65) &gt; 0, "Done", "")</f>
@@ -14153,7 +14153,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B66" t="str">
         <f>IF(COUNTIF(Table1[Code], A66) &gt; 0, "Done", "")</f>
@@ -14166,7 +14166,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B67" t="str">
         <f>IF(COUNTIF(Table1[Code], A67) &gt; 0, "Done", "")</f>
@@ -14179,7 +14179,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B68" t="str">
         <f>IF(COUNTIF(Table1[Code], A68) &gt; 0, "Done", "")</f>
@@ -14192,7 +14192,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B69" t="str">
         <f>IF(COUNTIF(Table1[Code], A69) &gt; 0, "Done", "")</f>
@@ -14205,7 +14205,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B70" t="str">
         <f>IF(COUNTIF(Table1[Code], A70) &gt; 0, "Done", "")</f>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B71" t="str">
         <f>IF(COUNTIF(Table1[Code], A71) &gt; 0, "Done", "")</f>
@@ -14231,7 +14231,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B72" t="str">
         <f>IF(COUNTIF(Table1[Code], A72) &gt; 0, "Done", "")</f>
@@ -14244,7 +14244,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B73" t="str">
         <f>IF(COUNTIF(Table1[Code], A73) &gt; 0, "Done", "")</f>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B74" t="str">
         <f>IF(COUNTIF(Table1[Code], A74) &gt; 0, "Done", "")</f>
@@ -14270,7 +14270,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B75" t="str">
         <f>IF(COUNTIF(Table1[Code], A75) &gt; 0, "Done", "")</f>
@@ -14283,7 +14283,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B76" t="str">
         <f>IF(COUNTIF(Table1[Code], A76) &gt; 0, "Done", "")</f>
@@ -14296,7 +14296,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B77" t="str">
         <f>IF(COUNTIF(Table1[Code], A77) &gt; 0, "Done", "")</f>
@@ -14309,7 +14309,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B78" t="str">
         <f>IF(COUNTIF(Table1[Code], A78) &gt; 0, "Done", "")</f>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B79" t="str">
         <f>IF(COUNTIF(Table1[Code], A79) &gt; 0, "Done", "")</f>
@@ -14335,7 +14335,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B80" t="str">
         <f>IF(COUNTIF(Table1[Code], A80) &gt; 0, "Done", "")</f>
@@ -14348,7 +14348,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B81" t="str">
         <f>IF(COUNTIF(Table1[Code], A81) &gt; 0, "Done", "")</f>
@@ -14372,7 +14372,7 @@
         <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -14388,12 +14388,12 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B84" t="str">
         <f>IF(COUNTIF(Table1[Code], A84) &gt; 0, "Done", "")</f>
@@ -14419,7 +14419,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B86" t="str">
         <f>IF(COUNTIF(Table1[Code], A86) &gt; 0, "Done", "")</f>
@@ -14443,12 +14443,12 @@
         <v>99.969999999999985</v>
       </c>
       <c r="D87" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B88" t="str">
         <f>IF(COUNTIF(Table1[Code], A88) &gt; 0, "Done", "")</f>
@@ -14459,7 +14459,7 @@
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -14475,7 +14475,7 @@
         <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -14491,7 +14491,7 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -14507,7 +14507,7 @@
         <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -14523,7 +14523,7 @@
         <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -14539,12 +14539,12 @@
         <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B94" t="str">
         <f>IF(COUNTIF(Table1[Code], A94) &gt; 0, "Done", "")</f>
@@ -14557,7 +14557,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B95" t="str">
         <f>IF(COUNTIF(Table1[Code], A95) &gt; 0, "Done", "")</f>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -14584,7 +14584,7 @@
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -14602,7 +14602,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B98" t="str">
         <f>IF(COUNTIF(Table1[Code], A98) &gt; 0, "Done", "")</f>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B99" t="str">
         <f>IF(COUNTIF(Table1[Code], A99) &gt; 0, "Done", "")</f>
@@ -14628,7 +14628,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B100" t="str">
         <f>IF(COUNTIF(Table1[Code], A100) &gt; 0, "Done", "")</f>
@@ -14641,7 +14641,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B101" t="str">
         <f>IF(COUNTIF(Table1[Code], A101) &gt; 0, "Done", "")</f>
@@ -14654,7 +14654,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B102" t="str">
         <f>IF(COUNTIF(Table1[Code], A102) &gt; 0, "Done", "")</f>
@@ -14667,7 +14667,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B103" t="str">
         <f>IF(COUNTIF(Table1[Code], A103) &gt; 0, "Done", "")</f>
@@ -14691,7 +14691,7 @@
         <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -14709,7 +14709,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B106" t="str">
         <f>IF(COUNTIF(Table1[Code], A106) &gt; 0, "Done", "")</f>
@@ -14722,7 +14722,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B107" t="str">
         <f>IF(COUNTIF(Table1[Code], A107) &gt; 0, "Done", "")</f>
@@ -14733,12 +14733,12 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B108" t="str">
         <f>IF(COUNTIF(Table1[Code], A108) &gt; 0, "Done", "")</f>
@@ -14749,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -14778,12 +14778,12 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B111" t="str">
         <f>IF(COUNTIF(Table1[Code], A111) &gt; 0, "Done", "")</f>
@@ -14794,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -14823,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -14839,7 +14839,7 @@
         <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -14855,12 +14855,12 @@
         <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B116" t="str">
         <f>IF(COUNTIF(Table1[Code], A116) &gt; 0, "Done", "")</f>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B117" t="str">
         <f>IF(COUNTIF(Table1[Code], A117) &gt; 0, "Done", "")</f>
@@ -14886,7 +14886,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B118" t="str">
         <f>IF(COUNTIF(Table1[Code], A118) &gt; 0, "Done", "")</f>
@@ -14899,7 +14899,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B119" t="str">
         <f>IF(COUNTIF(Table1[Code], A119) &gt; 0, "Done", "")</f>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B120" t="str">
         <f>IF(COUNTIF(Table1[Code], A120) &gt; 0, "Done", "")</f>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B121" t="str">
         <f>IF(COUNTIF(Table1[Code], A121) &gt; 0, "Done", "")</f>
@@ -14938,7 +14938,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B122" t="str">
         <f>IF(COUNTIF(Table1[Code], A122) &gt; 0, "Done", "")</f>
@@ -14951,7 +14951,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B123" t="str">
         <f>IF(COUNTIF(Table1[Code], A123) &gt; 0, "Done", "")</f>
@@ -14962,12 +14962,12 @@
         <v>100</v>
       </c>
       <c r="E123" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B124" t="str">
         <f>IF(COUNTIF(Table1[Code], A124) &gt; 0, "Done", "")</f>
@@ -14978,12 +14978,12 @@
         <v>80</v>
       </c>
       <c r="E124" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B125" t="str">
         <f>IF(COUNTIF(Table1[Code], A125) &gt; 0, "Done", "")</f>
@@ -14994,12 +14994,12 @@
         <v>100</v>
       </c>
       <c r="E125" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B126" t="str">
         <f>IF(COUNTIF(Table1[Code], A126) &gt; 0, "Done", "")</f>
@@ -15010,12 +15010,12 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B127" t="str">
         <f>IF(COUNTIF(Table1[Code], A127) &gt; 0, "Done", "")</f>
@@ -15028,7 +15028,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B128" t="str">
         <f>IF(COUNTIF(Table1[Code], A128) &gt; 0, "Done", "")</f>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B129" t="str">
         <f>IF(COUNTIF(Table1[Code], A129) &gt; 0, "Done", "")</f>
@@ -15054,7 +15054,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B130" t="str">
         <f>IF(COUNTIF(Table1[Code], A130) &gt; 0, "Done", "")</f>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B131" t="str">
         <f>IF(COUNTIF(Table1[Code], A131) &gt; 0, "Done", "")</f>
@@ -15080,7 +15080,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B132" t="str">
         <f>IF(COUNTIF(Table1[Code], A132) &gt; 0, "Done", "")</f>
@@ -15093,7 +15093,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B133" t="str">
         <f>IF(COUNTIF(Table1[Code], A133) &gt; 0, "Done", "")</f>
@@ -15106,7 +15106,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B134" t="str">
         <f>IF(COUNTIF(Table1[Code], A134) &gt; 0, "Done", "")</f>
@@ -15119,7 +15119,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B135" t="str">
         <f>IF(COUNTIF(Table1[Code], A135) &gt; 0, "Done", "")</f>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B136" t="str">
         <f>IF(COUNTIF(Table1[Code], A136) &gt; 0, "Done", "")</f>
@@ -15156,7 +15156,7 @@
         <v>100</v>
       </c>
       <c r="D137" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -15172,12 +15172,12 @@
         <v>100</v>
       </c>
       <c r="D138" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B139" t="str">
         <f>IF(COUNTIF(Table1[Code], A139) &gt; 0, "Done", "")</f>
@@ -15201,12 +15201,12 @@
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B141" t="str">
         <f>IF(COUNTIF(Table1[Code], A141) &gt; 0, "Done", "")</f>
@@ -15219,7 +15219,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B142" t="str">
         <f>IF(COUNTIF(Table1[Code], A142) &gt; 0, "Done", "")</f>
@@ -15243,12 +15243,12 @@
         <v>90</v>
       </c>
       <c r="D143" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B144" t="str">
         <f>IF(COUNTIF(Table1[Code], A144) &gt; 0, "Done", "")</f>
@@ -15261,7 +15261,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B145" t="str">
         <f>IF(COUNTIF(Table1[Code], A145) &gt; 0, "Done", "")</f>
@@ -15274,7 +15274,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B146" t="str">
         <f>IF(COUNTIF(Table1[Code], A146) &gt; 0, "Done", "")</f>

--- a/MDFS_20 06 22-1.xlsx
+++ b/MDFS_20 06 22-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webdrive.strath.ac.uk/home/82/hwb14182/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907DFB04-916A-4BE1-81B9-C09099EA1408}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFB8CE-9EB8-4E7C-82CC-E7956817BAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MDFs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="803">
   <si>
     <t>Code</t>
   </si>
@@ -4337,9 +4339,6 @@
     <t xml:space="preserve"> Benynon-Davies, P (2010) Business information systems, Palgrave  Chaffey, D. and Wood, S (2005) Business Information Management – Improving performance using information systems, Prentice Hall.   Grabot, B., Mayere, A. and Bazet, I. (2008) ERP Systems and Organizational Change - A Social-Technical Insight, Springer.  Li, F. (2007) What is e-business? Blackwell Publishing  Sheikh, K. (2001) Manufacturing Resource Planning with An Introduction to ERP, SCM, and CRM, McGrawHill.  Zerdick, A., Pictot, A., Schrape, K., Artope, A., Goldhammer, K., Lange, U.T., Vierkant, E., Lopez-Escobar, E and Silvertsone, R. (2000) E-conomics – strategies for the digital marketplace, Springer. </t>
   </si>
   <si>
-    <t>MS 952</t>
-  </si>
-  <si>
     <t>Regulation and competition in network industries</t>
   </si>
   <si>
@@ -4906,12 +4905,109 @@
   <si>
     <t xml:space="preserve">19520 </t>
   </si>
+  <si>
+    <t>ENGINEERING DESIGN FOR SOFTWARE DEVELOPMENT 2</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>To give an understanding of programming conepts and object orientation, familiarity with the syntax and facilities available in C++, and an ability to write working programs for use in engineering applications</t>
+  </si>
+  <si>
+    <t>LO 1: Demonstrate knowledge of C/C++ programming language - syntax and semantics 
+LO 2: Specify an algorithm to solve an engineering problem and develop code in an integrated development environment to solve it;
+LO 3: Design and implement a program according to object oriented principles;
+LO 4: Demonstrate an appreciation of software project management issues and methods - in an individual and group based context.</t>
+  </si>
+  <si>
+    <t>Programming in an Integrated Development Environment : compilers, pre-processor, conditional processing
+Basic programming concepts: variables and their types, operators, functions, conditions(looping and branching),
+passing by value and passing by reference, arrays, strings and pointers, I/O methods - reading from and
+writing to files, structures
+Introduction to Object Orientation: definition of classes, inheritance, polymorphism, composition and association
+C++ features including the standard library, containers(vectors, lists) and namespaces.
+Principles of software design and project management. UML and flow diagram specifications. Functional and
+test specifications. System testig and documentation, version control and archiving.
+Fault-finding and debugging, error handling, conditional complilation
+Software life-cycle models - waterfall</t>
+  </si>
+  <si>
+    <t>LO1
+C 1: Write, compile and run C/C++ code in the form of simple proscribed exercises.
+C 2: Write simple routines employing C/C++ library functions.
+C 3: Provide supporting documentation for developed code via incode documentation and laboratory
+logbooks.
+LO2
+C 1: Develop flow diagrams/pseudo code representations of key algorithms and then translate these into
+appropriate functioning programme code.
+C 2: Identify and fix(debug) C/C++ code errors using simple IDE error messages.
+LO3
+C 1: Ability to analyse/solve problems from an OOP perspective
+C 2: Specify classes - data types and methods appropriate for a given problem.
+C 3: Write, compile and run working C++ programmes
+LO4
+C 1: Develop working applications using an appropriate software development cycle.
+C 2: Develop and organise project code using library (.h, .hpp) and source (.c, .cpp) files.
+C 3: Develop high-level code as part of a group project environment
+C 4: Demonstrate program debugging and testing using the IDE
+C 5: Demonstrate the ability to document code development via log-books and e-respository.
+C 6: Prepare final full documentation for submitted project - final report, documented code and tested outputs.</t>
+  </si>
+  <si>
+    <t>The module adheres to the principles listed. The deadline dates for submissions are clearly defined and
+students are given feedback as they progress. There is a degree of peer feedback introduced in the work where
+students are asked to review aspects of classmates submission - encouraging a degree of self reflection on
+their own work as well as general feedback. We adopt a multi-point assesment mechanism whereby student
+grade in class does not depend upon a single assessment point - assessments are spread across S1 and S2.
+Feedback provied at each point. Project deadline is alligned to fit with other deadlines and to interate with final
+examination timetable in April/May</t>
+  </si>
+  <si>
+    <t>“C++ programming in easy steps” by Mike McGrath published by Computer Step
+“Thinking in C++” by Bruce Eckel available at
+http://mindview.net/Books/TICPP/ThinkingInCPP2e.html#Contents
+“The C++ Programming Language” by Bjarne Stroustrup, published by Addison Wesley
+http://www.cplusplus.com/
+http://www.research.att.com/~bs/C++.html</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Basic Quantum Theory
+Early experiments – e/m, photo-electric effect
+Structure of the atom
+Wave-particle duality
+Schrodinger equation and application in simple systems
+Basic Semiconductor Physics
+Crystal structure
+Electron mobility
+Band theory
+Doping of semiconductors
+Physics of p-n junctions
+Basic Device Physics
+Diode operation
+LED and laser diodes
+Transistors</t>
+  </si>
+  <si>
+    <t>Students will be able to demonstrate knowledge of topics listed in syllabus and be able
+to apply that knowledge to related problems.
+They will have a knowledge of early experiments that led to quantum theory.
+Be aware of crystal structure and how this influences the properties of materials.
+Have a knowledge of how simple semiconductor based devices work.</t>
+  </si>
+  <si>
+    <t>MyPlace PH 260: Notes from the lectures and worked examples will go up at the end of
+the week. Full set of notes will be posted at the end of the course.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4938,6 +5034,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4953,7 +5054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4961,11 +5062,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5000,6 +5116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5473,13 +5592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -5498,7 +5617,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +5676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -5601,7 +5720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5654,7 +5773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -5704,7 +5823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -5760,7 +5879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -5816,7 +5935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="28.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -5863,7 +5982,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -5919,7 +6038,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -5969,7 +6088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="94.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>103</v>
       </c>
@@ -6022,7 +6141,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>114</v>
       </c>
@@ -6072,7 +6191,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="21" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -6122,7 +6241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="31.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
@@ -6181,7 +6300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="25.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>132</v>
       </c>
@@ -6237,7 +6356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="51" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -6293,7 +6412,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="42.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -6349,7 +6468,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="50.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>162</v>
       </c>
@@ -6405,7 +6524,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="61.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
@@ -6464,7 +6583,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="42.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>185</v>
       </c>
@@ -6517,7 +6636,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="61.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>195</v>
       </c>
@@ -6576,7 +6695,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="45" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>206</v>
       </c>
@@ -6632,7 +6751,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="45" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>208</v>
       </c>
@@ -6688,7 +6807,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="65.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>218</v>
       </c>
@@ -6741,7 +6860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="48" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>226</v>
       </c>
@@ -6797,7 +6916,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="55.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
@@ -6853,7 +6972,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="70.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>245</v>
       </c>
@@ -6912,7 +7031,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="38.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>255</v>
       </c>
@@ -6971,7 +7090,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="69.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>265</v>
       </c>
@@ -7030,7 +7149,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="57.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>276</v>
       </c>
@@ -7089,7 +7208,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="52.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>286</v>
       </c>
@@ -7142,7 +7261,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="34.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>294</v>
       </c>
@@ -7195,7 +7314,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="55.5" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>303</v>
       </c>
@@ -7251,7 +7370,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="61.5" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>314</v>
       </c>
@@ -7307,7 +7426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="36.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>323</v>
       </c>
@@ -7366,7 +7485,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="45.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>334</v>
       </c>
@@ -7425,7 +7544,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="51" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>344</v>
       </c>
@@ -7484,7 +7603,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="60" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>354</v>
       </c>
@@ -7540,7 +7659,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="63.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>363</v>
       </c>
@@ -7599,7 +7718,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="50.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>373</v>
       </c>
@@ -7658,7 +7777,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="51" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>384</v>
       </c>
@@ -7717,7 +7836,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="51" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>393</v>
       </c>
@@ -7773,7 +7892,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="140.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>401</v>
       </c>
@@ -7823,7 +7942,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="86.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>409</v>
       </c>
@@ -7879,7 +7998,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="47.25" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>420</v>
       </c>
@@ -7935,7 +8054,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="27.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>429</v>
       </c>
@@ -7988,7 +8107,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="20.25" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>438</v>
       </c>
@@ -8047,7 +8166,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>445</v>
       </c>
@@ -8100,7 +8219,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>453</v>
       </c>
@@ -8156,7 +8275,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="42.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>461</v>
       </c>
@@ -8213,7 +8332,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="60.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>470</v>
       </c>
@@ -8269,7 +8388,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="18" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>479</v>
       </c>
@@ -8325,7 +8444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="45.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>487</v>
       </c>
@@ -8384,7 +8503,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>495</v>
       </c>
@@ -8443,7 +8562,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="18" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>501</v>
       </c>
@@ -8499,7 +8618,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="26.25" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>508</v>
       </c>
@@ -8552,7 +8671,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="20.25" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>515</v>
       </c>
@@ -8608,7 +8727,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>518</v>
       </c>
@@ -8664,7 +8783,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>528</v>
       </c>
@@ -8720,7 +8839,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>536</v>
       </c>
@@ -8773,7 +8892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="30.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>545</v>
       </c>
@@ -8829,9 +8948,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>555</v>
@@ -8876,9 +8995,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>561</v>
@@ -8908,7 +9027,7 @@
         <v>565</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>149</v>
@@ -8920,7 +9039,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="12.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>566</v>
       </c>
@@ -8973,7 +9092,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>574</v>
       </c>
@@ -9029,7 +9148,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>582</v>
       </c>
@@ -9085,7 +9204,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="32.25" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>591</v>
       </c>
@@ -9138,7 +9257,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="21" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>599</v>
       </c>
@@ -9191,12 +9310,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="18.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>28</v>
@@ -9208,25 +9327,25 @@
         <v>316</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="O68" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>58</v>
@@ -9238,7 +9357,95 @@
         <v>58</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="34.5" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="29.25" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -9254,11 +9461,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96219B0D-D89A-4F3E-B056-F6DA5CAE24A2}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -9272,42 +9479,42 @@
     <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -9324,14 +9531,14 @@
         <v>12.5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H2" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -9348,14 +9555,14 @@
         <v>12.5</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H3" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -9372,14 +9579,14 @@
         <v>12.5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H4" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -9396,14 +9603,14 @@
         <v>12.5</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H5" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="7">
         <v>56110</v>
       </c>
@@ -9420,14 +9627,14 @@
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H6" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="7">
         <v>56110</v>
       </c>
@@ -9444,14 +9651,14 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H7" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="7">
         <v>56110</v>
       </c>
@@ -9468,14 +9675,14 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -9492,14 +9699,14 @@
         <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H9" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
@@ -9516,14 +9723,14 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H10" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
@@ -9540,14 +9747,14 @@
         <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H11" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
@@ -9564,14 +9771,14 @@
         <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H12" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -9588,14 +9795,14 @@
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H13" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
@@ -9612,14 +9819,14 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H14" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -9636,7 +9843,7 @@
         <v>75</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
@@ -9646,7 +9853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
@@ -9663,7 +9870,7 @@
         <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
@@ -9673,7 +9880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="7">
         <v>56110</v>
       </c>
@@ -9690,7 +9897,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -9700,7 +9907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -9717,7 +9924,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
@@ -9727,7 +9934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -9744,14 +9951,14 @@
         <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H19" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -9768,7 +9975,7 @@
         <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G20" s="7">
         <v>2</v>
@@ -9778,7 +9985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
         <v>132</v>
       </c>
@@ -9795,7 +10002,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G21" s="7">
         <v>1.5</v>
@@ -9805,7 +10012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
         <v>132</v>
       </c>
@@ -9822,14 +10029,14 @@
         <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H22" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
         <v>132</v>
       </c>
@@ -9846,14 +10053,14 @@
         <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H23" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
         <v>132</v>
       </c>
@@ -9870,14 +10077,14 @@
         <v>5</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H24" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
         <v>132</v>
       </c>
@@ -9894,14 +10101,14 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H25" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
         <v>151</v>
       </c>
@@ -9918,14 +10125,14 @@
         <v>5</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H26" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="7" t="s">
         <v>151</v>
       </c>
@@ -9942,14 +10149,14 @@
         <v>5</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H27" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="7" t="s">
         <v>151</v>
       </c>
@@ -9966,14 +10173,14 @@
         <v>5</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H28" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
         <v>151</v>
       </c>
@@ -9990,14 +10197,14 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H29" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="7" t="s">
         <v>151</v>
       </c>
@@ -10014,14 +10221,14 @@
         <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H30" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
         <v>151</v>
       </c>
@@ -10038,7 +10245,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G31" s="7">
         <v>2</v>
@@ -10048,7 +10255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>16132</v>
       </c>
@@ -10065,14 +10272,14 @@
         <v>5</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H32" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="7">
         <v>16132</v>
       </c>
@@ -10089,14 +10296,14 @@
         <v>15</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H33" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="7">
         <v>16132</v>
       </c>
@@ -10113,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G34" s="7">
         <v>1.5</v>
@@ -10123,7 +10330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="7">
         <v>16132</v>
       </c>
@@ -10140,7 +10347,7 @@
         <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G35" s="7">
         <v>1.5</v>
@@ -10150,7 +10357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="7">
         <v>16232</v>
       </c>
@@ -10167,14 +10374,14 @@
         <v>5</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H36" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="7">
         <v>16232</v>
       </c>
@@ -10191,14 +10398,14 @@
         <v>5</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H37" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="7">
         <v>16232</v>
       </c>
@@ -10215,14 +10422,14 @@
         <v>10</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H38" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="7">
         <v>16232</v>
       </c>
@@ -10239,7 +10446,7 @@
         <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G39" s="7">
         <v>3</v>
@@ -10249,9 +10456,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="9" customFormat="1">
       <c r="A40" s="9">
-        <v>19.495999999999999</v>
+        <v>19496</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>430</v>
@@ -10267,12 +10474,12 @@
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1">
       <c r="A41" s="9">
-        <v>19.495999999999999</v>
+        <v>19496</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>430</v>
@@ -10288,12 +10495,12 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1">
       <c r="A42" s="9">
-        <v>19.495999999999999</v>
+        <v>19496</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>430</v>
@@ -10309,12 +10516,12 @@
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1">
       <c r="A43" s="9">
-        <v>19.52</v>
+        <v>19520</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>430</v>
@@ -10330,12 +10537,12 @@
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1">
       <c r="A44" s="9">
-        <v>19.52</v>
+        <v>19520</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>430</v>
@@ -10351,12 +10558,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1">
       <c r="A45" s="9">
-        <v>19.52</v>
+        <v>19520</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>430</v>
@@ -10372,10 +10579,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="7" t="s">
         <v>344</v>
       </c>
@@ -10392,7 +10599,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -10402,7 +10609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="7" t="s">
         <v>344</v>
       </c>
@@ -10419,7 +10626,7 @@
         <v>75</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G47" s="7">
         <v>2</v>
@@ -10429,7 +10636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="7" t="s">
         <v>344</v>
       </c>
@@ -10446,14 +10653,14 @@
         <v>15</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H48" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
         <v>420</v>
       </c>
@@ -10470,7 +10677,7 @@
         <v>60</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G49" s="7">
         <v>3</v>
@@ -10480,7 +10687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
         <v>420</v>
       </c>
@@ -10497,14 +10704,14 @@
         <v>20</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H50" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
         <v>420</v>
       </c>
@@ -10521,14 +10728,14 @@
         <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H51" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
         <v>453</v>
       </c>
@@ -10545,7 +10752,7 @@
         <v>70</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G52" s="7">
         <v>2</v>
@@ -10555,7 +10762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
         <v>453</v>
       </c>
@@ -10572,14 +10779,14 @@
         <v>15</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H53" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
         <v>453</v>
       </c>
@@ -10596,14 +10803,14 @@
         <v>15</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H54" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
         <v>461</v>
       </c>
@@ -10620,7 +10827,7 @@
         <v>60</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G55" s="7">
         <v>2</v>
@@ -10630,7 +10837,7 @@
         <v>99.95999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
         <v>461</v>
       </c>
@@ -10647,14 +10854,14 @@
         <v>6.66</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H56" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.95999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
         <v>461</v>
       </c>
@@ -10671,14 +10878,14 @@
         <v>6.66</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H57" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.95999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="8" t="s">
         <v>461</v>
       </c>
@@ -10695,14 +10902,14 @@
         <v>6.66</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H58" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.95999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="8" t="s">
         <v>461</v>
       </c>
@@ -10719,14 +10926,14 @@
         <v>6.66</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H59" s="7">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.95999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="7" t="s">
         <v>461</v>
       </c>
@@ -10743,14 +10950,14 @@
         <v>6.66</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H60" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.95999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="7" t="s">
         <v>461</v>
       </c>
@@ -10767,14 +10974,14 @@
         <v>6.66</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H61" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.95999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="7" t="s">
         <v>470</v>
       </c>
@@ -10788,7 +10995,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
@@ -10798,7 +11005,7 @@
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="7" t="s">
         <v>470</v>
       </c>
@@ -10815,14 +11022,14 @@
         <v>3.33</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H63" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="7" t="s">
         <v>470</v>
       </c>
@@ -10839,14 +11046,14 @@
         <v>3.33</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H64" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="7" t="s">
         <v>470</v>
       </c>
@@ -10863,14 +11070,14 @@
         <v>3.33</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H65" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="7" t="s">
         <v>470</v>
       </c>
@@ -10887,14 +11094,14 @@
         <v>3.33</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H66" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
         <v>470</v>
       </c>
@@ -10911,14 +11118,14 @@
         <v>3.33</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H67" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
         <v>470</v>
       </c>
@@ -10935,14 +11142,14 @@
         <v>3.33</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H68" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="7" t="s">
         <v>470</v>
       </c>
@@ -10959,14 +11166,14 @@
         <v>0</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H69" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
         <v>470</v>
       </c>
@@ -10983,14 +11190,14 @@
         <v>10</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H70" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
         <v>470</v>
       </c>
@@ -11007,7 +11214,7 @@
         <v>3.33</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G71" s="7">
         <v>2</v>
@@ -11017,7 +11224,7 @@
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
         <v>470</v>
       </c>
@@ -11034,7 +11241,7 @@
         <v>3.33</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G72" s="7">
         <v>2</v>
@@ -11044,7 +11251,7 @@
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
         <v>470</v>
       </c>
@@ -11061,7 +11268,7 @@
         <v>3.33</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G73" s="7">
         <v>2</v>
@@ -11071,7 +11278,7 @@
         <v>99.969999999999985</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
         <v>479</v>
       </c>
@@ -11088,7 +11295,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -11098,7 +11305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
         <v>479</v>
       </c>
@@ -11115,14 +11322,14 @@
         <v>10</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H75" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="7" t="s">
         <v>479</v>
       </c>
@@ -11139,14 +11346,14 @@
         <v>20</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H76" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="7" t="s">
         <v>479</v>
       </c>
@@ -11163,14 +11370,14 @@
         <v>10</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H77" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="7" t="s">
         <v>487</v>
       </c>
@@ -11187,7 +11394,7 @@
         <v>60</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
@@ -11197,7 +11404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="7" t="s">
         <v>487</v>
       </c>
@@ -11214,14 +11421,14 @@
         <v>20</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H79" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="7" t="s">
         <v>487</v>
       </c>
@@ -11238,14 +11445,14 @@
         <v>20</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H80" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="7" t="s">
         <v>495</v>
       </c>
@@ -11262,7 +11469,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G81" s="7">
         <v>2</v>
@@ -11272,7 +11479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="7" t="s">
         <v>495</v>
       </c>
@@ -11289,14 +11496,14 @@
         <v>5</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H82" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="7" t="s">
         <v>495</v>
       </c>
@@ -11313,14 +11520,14 @@
         <v>10</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H83" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="7" t="s">
         <v>495</v>
       </c>
@@ -11337,14 +11544,14 @@
         <v>10</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H84" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="7" t="s">
         <v>495</v>
       </c>
@@ -11361,14 +11568,14 @@
         <v>7</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H85" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="7" t="s">
         <v>495</v>
       </c>
@@ -11385,14 +11592,14 @@
         <v>8</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H86" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="7" t="s">
         <v>429</v>
       </c>
@@ -11409,7 +11616,7 @@
         <v>60</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G87" s="7">
         <v>2</v>
@@ -11419,7 +11626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="7" t="s">
         <v>429</v>
       </c>
@@ -11436,7 +11643,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G88" s="7">
         <v>1</v>
@@ -11446,7 +11653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="7" t="s">
         <v>429</v>
       </c>
@@ -11463,14 +11670,14 @@
         <v>15</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H89" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="7" t="s">
         <v>429</v>
       </c>
@@ -11487,14 +11694,14 @@
         <v>15</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H90" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="7" t="s">
         <v>501</v>
       </c>
@@ -11511,7 +11718,7 @@
         <v>60</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G91" s="7">
         <v>2</v>
@@ -11521,7 +11728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="7" t="s">
         <v>501</v>
       </c>
@@ -11538,14 +11745,14 @@
         <v>15</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H92" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="7" t="s">
         <v>501</v>
       </c>
@@ -11562,14 +11769,14 @@
         <v>20</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H93" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="7" t="s">
         <v>501</v>
       </c>
@@ -11590,7 +11797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="7" t="s">
         <v>438</v>
       </c>
@@ -11601,7 +11808,7 @@
         <v>50</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G95" s="7">
         <v>2</v>
@@ -11611,7 +11818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="7" t="s">
         <v>438</v>
       </c>
@@ -11628,14 +11835,14 @@
         <v>5</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H96" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="7" t="s">
         <v>438</v>
       </c>
@@ -11646,14 +11853,14 @@
         <v>5</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H97" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="7" t="s">
         <v>438</v>
       </c>
@@ -11670,14 +11877,14 @@
         <v>15</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H98" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="7" t="s">
         <v>438</v>
       </c>
@@ -11694,14 +11901,14 @@
         <v>4</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H99" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="7" t="s">
         <v>438</v>
       </c>
@@ -11718,14 +11925,14 @@
         <v>6</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H100" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
         <v>438</v>
       </c>
@@ -11742,14 +11949,14 @@
         <v>12</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H101" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="7" t="s">
         <v>438</v>
       </c>
@@ -11760,14 +11967,14 @@
         <v>3</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H102" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="s">
         <v>508</v>
       </c>
@@ -11784,7 +11991,7 @@
         <v>60</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G103" s="7">
         <v>2</v>
@@ -11794,7 +12001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="7" t="s">
         <v>508</v>
       </c>
@@ -11811,14 +12018,14 @@
         <v>5</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H104" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="7" t="s">
         <v>508</v>
       </c>
@@ -11835,14 +12042,14 @@
         <v>5</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H105" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="7" t="s">
         <v>508</v>
       </c>
@@ -11859,14 +12066,14 @@
         <v>5</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H106" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="7" t="s">
         <v>508</v>
       </c>
@@ -11883,14 +12090,14 @@
         <v>5</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H107" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="7" t="s">
         <v>508</v>
       </c>
@@ -11907,14 +12114,14 @@
         <v>5</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H108" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="7" t="s">
         <v>508</v>
       </c>
@@ -11931,14 +12138,14 @@
         <v>5</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H109" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="7" t="s">
         <v>508</v>
       </c>
@@ -11955,14 +12162,14 @@
         <v>10</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H110" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="7" t="s">
         <v>515</v>
       </c>
@@ -11979,7 +12186,7 @@
         <v>60</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G111" s="7">
         <v>2</v>
@@ -11989,7 +12196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="7" t="s">
         <v>515</v>
       </c>
@@ -12006,14 +12213,14 @@
         <v>20</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H112" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
         <v>515</v>
       </c>
@@ -12030,14 +12237,14 @@
         <v>5</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H113" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
         <v>515</v>
       </c>
@@ -12054,14 +12261,14 @@
         <v>15</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H114" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
         <v>518</v>
       </c>
@@ -12078,7 +12285,7 @@
         <v>40</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G115" s="7">
         <v>2</v>
@@ -12088,7 +12295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
         <v>518</v>
       </c>
@@ -12105,14 +12312,14 @@
         <v>10</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H116" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
         <v>518</v>
       </c>
@@ -12129,14 +12336,14 @@
         <v>20</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H117" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
         <v>518</v>
       </c>
@@ -12153,14 +12360,14 @@
         <v>10</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H118" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
         <v>518</v>
       </c>
@@ -12177,14 +12384,14 @@
         <v>20</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H119" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
         <v>445</v>
       </c>
@@ -12201,14 +12408,14 @@
         <v>0</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H120" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
         <v>445</v>
       </c>
@@ -12225,14 +12432,14 @@
         <v>20</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H121" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
         <v>445</v>
       </c>
@@ -12249,14 +12456,14 @@
         <v>10</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H122" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
         <v>445</v>
       </c>
@@ -12273,14 +12480,14 @@
         <v>40</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H123" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
         <v>445</v>
       </c>
@@ -12291,14 +12498,14 @@
         <v>15</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H124" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
         <v>445</v>
       </c>
@@ -12309,14 +12516,14 @@
         <v>15</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H125" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
         <v>528</v>
       </c>
@@ -12333,7 +12540,7 @@
         <v>60</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G126" s="7">
         <v>2</v>
@@ -12343,7 +12550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="11" customFormat="1">
       <c r="A127" s="11" t="s">
         <v>528</v>
       </c>
@@ -12357,17 +12564,17 @@
         <v>7</v>
       </c>
       <c r="F127" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="H127" s="12">
+        <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
+        <v>60</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="H127" s="12">
-        <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
-        <v>60</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:9" s="11" customFormat="1">
       <c r="A128" s="11" t="s">
         <v>528</v>
       </c>
@@ -12381,14 +12588,14 @@
         <v>9</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H128" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="11" customFormat="1">
       <c r="A129" s="11" t="s">
         <v>528</v>
       </c>
@@ -12402,14 +12609,14 @@
         <v>10</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H129" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="11" customFormat="1">
       <c r="A130" s="11" t="s">
         <v>528</v>
       </c>
@@ -12423,14 +12630,14 @@
         <v>11</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H130" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="11" customFormat="1">
       <c r="A131" s="11" t="s">
         <v>528</v>
       </c>
@@ -12444,14 +12651,14 @@
         <v>4</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H131" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="11" customFormat="1">
       <c r="A132" s="11" t="s">
         <v>528</v>
       </c>
@@ -12465,14 +12672,14 @@
         <v>7</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H132" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="11" customFormat="1">
       <c r="A133" s="11" t="s">
         <v>528</v>
       </c>
@@ -12486,14 +12693,14 @@
         <v>11</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H133" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="7" t="s">
         <v>566</v>
       </c>
@@ -12510,7 +12717,7 @@
         <v>25</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G134" s="7">
         <v>1.5</v>
@@ -12520,7 +12727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="7" t="s">
         <v>566</v>
       </c>
@@ -12537,7 +12744,7 @@
         <v>55</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G135" s="7">
         <v>1.5</v>
@@ -12547,7 +12754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="7" t="s">
         <v>566</v>
       </c>
@@ -12564,14 +12771,14 @@
         <v>5</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H136" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="7" t="s">
         <v>566</v>
       </c>
@@ -12588,14 +12795,14 @@
         <v>5</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H137" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="7" t="s">
         <v>566</v>
       </c>
@@ -12612,14 +12819,14 @@
         <v>5</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H138" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="7" t="s">
         <v>566</v>
       </c>
@@ -12636,14 +12843,14 @@
         <v>5</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H139" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="7" t="s">
         <v>574</v>
       </c>
@@ -12660,7 +12867,7 @@
         <v>40</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G140" s="7">
         <v>2</v>
@@ -12670,7 +12877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="7" t="s">
         <v>574</v>
       </c>
@@ -12687,7 +12894,7 @@
         <v>40</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G141" s="7">
         <v>2</v>
@@ -12697,7 +12904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="11" customFormat="1">
       <c r="A142" s="11" t="s">
         <v>574</v>
       </c>
@@ -12711,17 +12918,17 @@
         <v>5</v>
       </c>
       <c r="F142" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="H142" s="12">
+        <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
+        <v>80</v>
+      </c>
+      <c r="I142" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="H142" s="12">
-        <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
-        <v>80</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:9" s="11" customFormat="1">
       <c r="A143" s="11" t="s">
         <v>574</v>
       </c>
@@ -12735,14 +12942,14 @@
         <v>9</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H143" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="11" customFormat="1">
       <c r="A144" s="11" t="s">
         <v>574</v>
       </c>
@@ -12756,14 +12963,14 @@
         <v>5</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H144" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="11" customFormat="1">
       <c r="A145" s="11" t="s">
         <v>574</v>
       </c>
@@ -12777,14 +12984,14 @@
         <v>9</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H145" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="11" customFormat="1">
       <c r="A146" s="11" t="s">
         <v>574</v>
       </c>
@@ -12798,14 +13005,14 @@
         <v>2</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H146" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="7" t="s">
         <v>582</v>
       </c>
@@ -12822,7 +13029,7 @@
         <v>40</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G147" s="7">
         <v>1.5</v>
@@ -12832,7 +13039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="7" t="s">
         <v>582</v>
       </c>
@@ -12849,7 +13056,7 @@
         <v>50</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G148" s="7">
         <v>2</v>
@@ -12859,7 +13066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="7" t="s">
         <v>582</v>
       </c>
@@ -12876,14 +13083,14 @@
         <v>5</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H149" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="7" t="s">
         <v>582</v>
       </c>
@@ -12900,14 +13107,14 @@
         <v>5</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H150" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="7" t="s">
         <v>591</v>
       </c>
@@ -12924,7 +13131,7 @@
         <v>60</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G151" s="7">
         <v>2</v>
@@ -12934,7 +13141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="7" t="s">
         <v>591</v>
       </c>
@@ -12951,17 +13158,17 @@
         <v>10</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="H152" s="8">
+        <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
+        <v>100</v>
+      </c>
+      <c r="I152" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="H152" s="8">
-        <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
-        <v>100</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="7" t="s">
         <v>591</v>
       </c>
@@ -12975,14 +13182,14 @@
         <v>5</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H153" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="7" t="s">
         <v>591</v>
       </c>
@@ -12996,14 +13203,14 @@
         <v>15</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H154" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="7" t="s">
         <v>591</v>
       </c>
@@ -13017,14 +13224,14 @@
         <v>5</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H155" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="7" t="s">
         <v>591</v>
       </c>
@@ -13038,16 +13245,16 @@
         <v>5</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="H156" s="8">
+        <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="11" customFormat="1">
+      <c r="A157" s="11" t="s">
         <v>692</v>
-      </c>
-      <c r="H156" s="8">
-        <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
-        <v>693</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>430</v>
@@ -13056,19 +13263,19 @@
         <v>50</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H157" s="12">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>422</v>
@@ -13083,7 +13290,7 @@
         <v>50</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G158" s="7">
         <v>2</v>
@@ -13093,9 +13300,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="11" customFormat="1">
       <c r="A159" s="11" t="s">
-        <v>607</v>
+        <v>784</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>422</v>
@@ -13104,7 +13311,7 @@
         <v>50</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G159" s="11">
         <v>2</v>
@@ -13114,12 +13321,12 @@
         <v>100</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="7" t="s">
-        <v>607</v>
+        <v>784</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>430</v>
@@ -13128,16 +13335,16 @@
         <v>35</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H160" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="7" t="s">
-        <v>607</v>
+        <v>784</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>430</v>
@@ -13146,7 +13353,7 @@
         <v>15</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H161" s="8">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -13170,30 +13377,30 @@
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C1" t="s">
         <v>697</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>698</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>699</v>
       </c>
-      <c r="F1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>16132</v>
       </c>
@@ -13206,13 +13413,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F2" t="s">
         <v>701</v>
       </c>
-      <c r="F2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>16232</v>
       </c>
@@ -13225,10 +13432,10 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>16402</v>
       </c>
@@ -13241,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>16415</v>
       </c>
@@ -13254,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>16429</v>
       </c>
@@ -13267,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>16599</v>
       </c>
@@ -13280,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>19207</v>
       </c>
@@ -13293,10 +13500,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>19222</v>
       </c>
@@ -13309,10 +13516,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>19260</v>
       </c>
@@ -13325,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>19450</v>
       </c>
@@ -13338,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>19496</v>
       </c>
@@ -13351,13 +13558,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E12" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>19520</v>
       </c>
@@ -13370,13 +13577,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E13" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>56110</v>
       </c>
@@ -13389,10 +13596,10 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>56213</v>
       </c>
@@ -13405,10 +13612,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>56324</v>
       </c>
@@ -13421,12 +13628,12 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B17" t="str">
         <f>IF(COUNTIF(Table1[Code], A17) &gt; 0, "Done", "")</f>
@@ -13437,9 +13644,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B18" t="str">
         <f>IF(COUNTIF(Table1[Code], A18) &gt; 0, "Done", "")</f>
@@ -13450,9 +13657,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B19" t="str">
         <f>IF(COUNTIF(Table1[Code], A19) &gt; 0, "Done", "")</f>
@@ -13463,9 +13670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B20" t="str">
         <f>IF(COUNTIF(Table1[Code], A20) &gt; 0, "Done", "")</f>
@@ -13476,9 +13683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B21" t="str">
         <f>IF(COUNTIF(Table1[Code], A21) &gt; 0, "Done", "")</f>
@@ -13489,9 +13696,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B22" t="str">
         <f>IF(COUNTIF(Table1[Code], A22) &gt; 0, "Done", "")</f>
@@ -13502,9 +13709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B23" t="str">
         <f>IF(COUNTIF(Table1[Code], A23) &gt; 0, "Done", "")</f>
@@ -13515,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -13528,10 +13735,10 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>409</v>
       </c>
@@ -13544,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -13557,12 +13764,12 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B27" t="str">
         <f>IF(COUNTIF(Table1[Code], A27) &gt; 0, "Done", "")</f>
@@ -13573,7 +13780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -13586,10 +13793,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -13602,10 +13809,10 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -13618,23 +13825,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B31" t="str">
         <f>IF(COUNTIF(Table1[Code], A31) &gt; 0, "Done", "")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="C31">
         <f>IFERROR(VLOOKUP(A31,Table3[],8, FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -13647,10 +13854,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -13663,10 +13870,10 @@
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -13679,10 +13886,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -13695,10 +13902,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -13711,12 +13918,12 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B37" t="str">
         <f>IF(COUNTIF(Table1[Code], A37) &gt; 0, "Done", "")</f>
@@ -13727,10 +13934,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -13743,12 +13950,12 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B39" t="str">
         <f>IF(COUNTIF(Table1[Code], A39) &gt; 0, "Done", "")</f>
@@ -13759,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>226</v>
       </c>
@@ -13772,10 +13979,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>235</v>
       </c>
@@ -13788,10 +13995,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>245</v>
       </c>
@@ -13804,10 +14011,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>255</v>
       </c>
@@ -13820,10 +14027,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>265</v>
       </c>
@@ -13836,10 +14043,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>276</v>
       </c>
@@ -13852,10 +14059,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -13868,10 +14075,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -13884,10 +14091,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>303</v>
       </c>
@@ -13900,12 +14107,12 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B49" t="str">
         <f>IF(COUNTIF(Table1[Code], A49) &gt; 0, "Done", "")</f>
@@ -13916,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>314</v>
       </c>
@@ -13929,10 +14136,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>323</v>
       </c>
@@ -13945,10 +14152,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>334</v>
       </c>
@@ -13961,10 +14168,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>344</v>
       </c>
@@ -13977,10 +14184,10 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -13993,10 +14200,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>363</v>
       </c>
@@ -14009,10 +14216,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -14025,10 +14232,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>384</v>
       </c>
@@ -14041,10 +14248,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>393</v>
       </c>
@@ -14057,12 +14264,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B59" t="str">
         <f>IF(COUNTIF(Table1[Code], A59) &gt; 0, "Done", "")</f>
@@ -14073,9 +14280,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B60" t="str">
         <f>IF(COUNTIF(Table1[Code], A60) &gt; 0, "Done", "")</f>
@@ -14086,9 +14293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B61" t="str">
         <f>IF(COUNTIF(Table1[Code], A61) &gt; 0, "Done", "")</f>
@@ -14099,9 +14306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B62" t="str">
         <f>IF(COUNTIF(Table1[Code], A62) &gt; 0, "Done", "")</f>
@@ -14112,9 +14319,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B63" t="str">
         <f>IF(COUNTIF(Table1[Code], A63) &gt; 0, "Done", "")</f>
@@ -14125,9 +14332,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B64" t="str">
         <f>IF(COUNTIF(Table1[Code], A64) &gt; 0, "Done", "")</f>
@@ -14138,9 +14345,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B65" t="str">
         <f>IF(COUNTIF(Table1[Code], A65) &gt; 0, "Done", "")</f>
@@ -14151,9 +14358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B66" t="str">
         <f>IF(COUNTIF(Table1[Code], A66) &gt; 0, "Done", "")</f>
@@ -14164,9 +14371,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B67" t="str">
         <f>IF(COUNTIF(Table1[Code], A67) &gt; 0, "Done", "")</f>
@@ -14177,9 +14384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B68" t="str">
         <f>IF(COUNTIF(Table1[Code], A68) &gt; 0, "Done", "")</f>
@@ -14190,9 +14397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B69" t="str">
         <f>IF(COUNTIF(Table1[Code], A69) &gt; 0, "Done", "")</f>
@@ -14203,9 +14410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B70" t="str">
         <f>IF(COUNTIF(Table1[Code], A70) &gt; 0, "Done", "")</f>
@@ -14216,9 +14423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B71" t="str">
         <f>IF(COUNTIF(Table1[Code], A71) &gt; 0, "Done", "")</f>
@@ -14229,9 +14436,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B72" t="str">
         <f>IF(COUNTIF(Table1[Code], A72) &gt; 0, "Done", "")</f>
@@ -14242,9 +14449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B73" t="str">
         <f>IF(COUNTIF(Table1[Code], A73) &gt; 0, "Done", "")</f>
@@ -14255,9 +14462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B74" t="str">
         <f>IF(COUNTIF(Table1[Code], A74) &gt; 0, "Done", "")</f>
@@ -14268,9 +14475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B75" t="str">
         <f>IF(COUNTIF(Table1[Code], A75) &gt; 0, "Done", "")</f>
@@ -14281,9 +14488,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B76" t="str">
         <f>IF(COUNTIF(Table1[Code], A76) &gt; 0, "Done", "")</f>
@@ -14294,9 +14501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B77" t="str">
         <f>IF(COUNTIF(Table1[Code], A77) &gt; 0, "Done", "")</f>
@@ -14307,9 +14514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B78" t="str">
         <f>IF(COUNTIF(Table1[Code], A78) &gt; 0, "Done", "")</f>
@@ -14320,9 +14527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B79" t="str">
         <f>IF(COUNTIF(Table1[Code], A79) &gt; 0, "Done", "")</f>
@@ -14333,9 +14540,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B80" t="str">
         <f>IF(COUNTIF(Table1[Code], A80) &gt; 0, "Done", "")</f>
@@ -14346,9 +14553,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B81" t="str">
         <f>IF(COUNTIF(Table1[Code], A81) &gt; 0, "Done", "")</f>
@@ -14359,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>420</v>
       </c>
@@ -14372,10 +14579,10 @@
         <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>453</v>
       </c>
@@ -14388,12 +14595,12 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B84" t="str">
         <f>IF(COUNTIF(Table1[Code], A84) &gt; 0, "Done", "")</f>
@@ -14404,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>461</v>
       </c>
@@ -14417,9 +14624,9 @@
         <v>99.95999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B86" t="str">
         <f>IF(COUNTIF(Table1[Code], A86) &gt; 0, "Done", "")</f>
@@ -14430,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>470</v>
       </c>
@@ -14443,10 +14650,10 @@
         <v>99.969999999999985</v>
       </c>
       <c r="D87" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>591</v>
       </c>
@@ -14459,10 +14666,10 @@
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>479</v>
       </c>
@@ -14475,10 +14682,10 @@
         <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>487</v>
       </c>
@@ -14491,10 +14698,10 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>495</v>
       </c>
@@ -14507,10 +14714,10 @@
         <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>429</v>
       </c>
@@ -14523,10 +14730,10 @@
         <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>501</v>
       </c>
@@ -14539,12 +14746,12 @@
         <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B94" t="str">
         <f>IF(COUNTIF(Table1[Code], A94) &gt; 0, "Done", "")</f>
@@ -14555,9 +14762,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B95" t="str">
         <f>IF(COUNTIF(Table1[Code], A95) &gt; 0, "Done", "")</f>
@@ -14568,10 +14775,10 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>438</v>
       </c>
@@ -14584,10 +14791,10 @@
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>508</v>
       </c>
@@ -14600,9 +14807,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B98" t="str">
         <f>IF(COUNTIF(Table1[Code], A98) &gt; 0, "Done", "")</f>
@@ -14613,9 +14820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B99" t="str">
         <f>IF(COUNTIF(Table1[Code], A99) &gt; 0, "Done", "")</f>
@@ -14626,9 +14833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B100" t="str">
         <f>IF(COUNTIF(Table1[Code], A100) &gt; 0, "Done", "")</f>
@@ -14639,9 +14846,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B101" t="str">
         <f>IF(COUNTIF(Table1[Code], A101) &gt; 0, "Done", "")</f>
@@ -14652,9 +14859,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B102" t="str">
         <f>IF(COUNTIF(Table1[Code], A102) &gt; 0, "Done", "")</f>
@@ -14665,9 +14872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B103" t="str">
         <f>IF(COUNTIF(Table1[Code], A103) &gt; 0, "Done", "")</f>
@@ -14678,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>515</v>
       </c>
@@ -14691,10 +14898,10 @@
         <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>518</v>
       </c>
@@ -14707,9 +14914,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B106" t="str">
         <f>IF(COUNTIF(Table1[Code], A106) &gt; 0, "Done", "")</f>
@@ -14720,9 +14927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B107" t="str">
         <f>IF(COUNTIF(Table1[Code], A107) &gt; 0, "Done", "")</f>
@@ -14733,12 +14940,12 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
         <v>757</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>758</v>
       </c>
       <c r="B108" t="str">
         <f>IF(COUNTIF(Table1[Code], A108) &gt; 0, "Done", "")</f>
@@ -14749,10 +14956,10 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -14765,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -14778,12 +14985,12 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B111" t="str">
         <f>IF(COUNTIF(Table1[Code], A111) &gt; 0, "Done", "")</f>
@@ -14794,10 +15001,10 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>218</v>
       </c>
@@ -14810,7 +15017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -14823,10 +15030,10 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>445</v>
       </c>
@@ -14839,10 +15046,10 @@
         <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>528</v>
       </c>
@@ -14855,12 +15062,12 @@
         <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B116" t="str">
         <f>IF(COUNTIF(Table1[Code], A116) &gt; 0, "Done", "")</f>
@@ -14871,9 +15078,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B117" t="str">
         <f>IF(COUNTIF(Table1[Code], A117) &gt; 0, "Done", "")</f>
@@ -14884,9 +15091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B118" t="str">
         <f>IF(COUNTIF(Table1[Code], A118) &gt; 0, "Done", "")</f>
@@ -14897,9 +15104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B119" t="str">
         <f>IF(COUNTIF(Table1[Code], A119) &gt; 0, "Done", "")</f>
@@ -14910,9 +15117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B120" t="str">
         <f>IF(COUNTIF(Table1[Code], A120) &gt; 0, "Done", "")</f>
@@ -14923,9 +15130,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B121" t="str">
         <f>IF(COUNTIF(Table1[Code], A121) &gt; 0, "Done", "")</f>
@@ -14936,9 +15143,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B122" t="str">
         <f>IF(COUNTIF(Table1[Code], A122) &gt; 0, "Done", "")</f>
@@ -14949,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>566</v>
       </c>
@@ -14962,10 +15169,10 @@
         <v>100</v>
       </c>
       <c r="E123" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>574</v>
       </c>
@@ -14978,10 +15185,10 @@
         <v>80</v>
       </c>
       <c r="E124" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>582</v>
       </c>
@@ -14994,12 +15201,12 @@
         <v>100</v>
       </c>
       <c r="E125" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>772</v>
       </c>
       <c r="B126" t="str">
         <f>IF(COUNTIF(Table1[Code], A126) &gt; 0, "Done", "")</f>
@@ -15010,12 +15217,12 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>774</v>
       </c>
       <c r="B127" t="str">
         <f>IF(COUNTIF(Table1[Code], A127) &gt; 0, "Done", "")</f>
@@ -15026,9 +15233,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B128" t="str">
         <f>IF(COUNTIF(Table1[Code], A128) &gt; 0, "Done", "")</f>
@@ -15039,9 +15246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B129" t="str">
         <f>IF(COUNTIF(Table1[Code], A129) &gt; 0, "Done", "")</f>
@@ -15052,9 +15259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B130" t="str">
         <f>IF(COUNTIF(Table1[Code], A130) &gt; 0, "Done", "")</f>
@@ -15065,9 +15272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B131" t="str">
         <f>IF(COUNTIF(Table1[Code], A131) &gt; 0, "Done", "")</f>
@@ -15078,9 +15285,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B132" t="str">
         <f>IF(COUNTIF(Table1[Code], A132) &gt; 0, "Done", "")</f>
@@ -15091,9 +15298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B133" t="str">
         <f>IF(COUNTIF(Table1[Code], A133) &gt; 0, "Done", "")</f>
@@ -15104,9 +15311,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B134" t="str">
         <f>IF(COUNTIF(Table1[Code], A134) &gt; 0, "Done", "")</f>
@@ -15117,9 +15324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B135" t="str">
         <f>IF(COUNTIF(Table1[Code], A135) &gt; 0, "Done", "")</f>
@@ -15130,9 +15337,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B136" t="str">
         <f>IF(COUNTIF(Table1[Code], A136) &gt; 0, "Done", "")</f>
@@ -15143,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -15156,10 +15363,10 @@
         <v>100</v>
       </c>
       <c r="D137" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -15172,12 +15379,12 @@
         <v>100</v>
       </c>
       <c r="D138" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B139" t="str">
         <f>IF(COUNTIF(Table1[Code], A139) &gt; 0, "Done", "")</f>
@@ -15188,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>401</v>
       </c>
@@ -15201,12 +15408,12 @@
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B141" t="str">
         <f>IF(COUNTIF(Table1[Code], A141) &gt; 0, "Done", "")</f>
@@ -15217,9 +15424,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B142" t="str">
         <f>IF(COUNTIF(Table1[Code], A142) &gt; 0, "Done", "")</f>
@@ -15227,10 +15434,10 @@
       </c>
       <c r="C142">
         <f>IFERROR(VLOOKUP(A142,Table3[],8, FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -15243,25 +15450,25 @@
         <v>90</v>
       </c>
       <c r="D143" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B144" t="str">
         <f>IF(COUNTIF(Table1[Code], A144) &gt; 0, "Done", "")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="C144">
         <f>IFERROR(VLOOKUP(A144,Table3[],8, FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B145" t="str">
         <f>IF(COUNTIF(Table1[Code], A145) &gt; 0, "Done", "")</f>
@@ -15272,9 +15479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B146" t="str">
         <f>IF(COUNTIF(Table1[Code], A146) &gt; 0, "Done", "")</f>

--- a/MDFS_20 06 22-1.xlsx
+++ b/MDFS_20 06 22-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webdrive.strath.ac.uk/home/82/hwb14182/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFB8CE-9EB8-4E7C-82CC-E7956817BAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBEF65-9CA8-4CD1-852B-ECEE9991A0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MDFs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="803">
   <si>
     <t>Code</t>
   </si>
@@ -5594,7 +5594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
@@ -9461,8 +9461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96219B0D-D89A-4F3E-B056-F6DA5CAE24A2}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11804,6 +11804,12 @@
       <c r="B95" s="7" t="s">
         <v>422</v>
       </c>
+      <c r="C95" s="7">
+        <v>2</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>422</v>
+      </c>
       <c r="E95" s="7">
         <v>50</v>
       </c>
@@ -11849,6 +11855,12 @@
       <c r="B97" s="7" t="s">
         <v>430</v>
       </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>422</v>
+      </c>
       <c r="E97" s="7">
         <v>5</v>
       </c>
@@ -11963,6 +11975,12 @@
       <c r="B102" s="7" t="s">
         <v>430</v>
       </c>
+      <c r="C102" s="7">
+        <v>2</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>422</v>
+      </c>
       <c r="E102" s="7">
         <v>3</v>
       </c>
@@ -12494,6 +12512,12 @@
       <c r="B124" s="7" t="s">
         <v>430</v>
       </c>
+      <c r="C124" s="7">
+        <v>2</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>422</v>
+      </c>
       <c r="E124" s="7">
         <v>15</v>
       </c>
@@ -12512,6 +12536,12 @@
       <c r="B125" s="7" t="s">
         <v>430</v>
       </c>
+      <c r="C125" s="7">
+        <v>2</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>422</v>
+      </c>
       <c r="E125" s="7">
         <v>15</v>
       </c>
@@ -12563,6 +12593,9 @@
       <c r="D127" s="11">
         <v>7</v>
       </c>
+      <c r="E127" s="11">
+        <v>0</v>
+      </c>
       <c r="F127" s="11" t="s">
         <v>680</v>
       </c>
@@ -12587,6 +12620,9 @@
       <c r="D128" s="11">
         <v>9</v>
       </c>
+      <c r="E128" s="11">
+        <v>0</v>
+      </c>
       <c r="F128" s="11" t="s">
         <v>641</v>
       </c>
@@ -12608,6 +12644,9 @@
       <c r="D129" s="11">
         <v>10</v>
       </c>
+      <c r="E129" s="11">
+        <v>0</v>
+      </c>
       <c r="F129" s="11" t="s">
         <v>641</v>
       </c>
@@ -12629,6 +12668,9 @@
       <c r="D130" s="11">
         <v>11</v>
       </c>
+      <c r="E130" s="11">
+        <v>0</v>
+      </c>
       <c r="F130" s="11" t="s">
         <v>641</v>
       </c>
@@ -12650,6 +12692,9 @@
       <c r="D131" s="11">
         <v>4</v>
       </c>
+      <c r="E131" s="11">
+        <v>0</v>
+      </c>
       <c r="F131" s="11" t="s">
         <v>680</v>
       </c>
@@ -12671,6 +12716,9 @@
       <c r="D132" s="11">
         <v>7</v>
       </c>
+      <c r="E132" s="11">
+        <v>0</v>
+      </c>
       <c r="F132" s="11" t="s">
         <v>680</v>
       </c>
@@ -12692,6 +12740,9 @@
       <c r="D133" s="11">
         <v>11</v>
       </c>
+      <c r="E133" s="11">
+        <v>0</v>
+      </c>
       <c r="F133" s="11" t="s">
         <v>641</v>
       </c>
@@ -12917,6 +12968,9 @@
       <c r="D142" s="11">
         <v>5</v>
       </c>
+      <c r="E142" s="11">
+        <v>0</v>
+      </c>
       <c r="F142" s="11" t="s">
         <v>683</v>
       </c>
@@ -12941,6 +12995,9 @@
       <c r="D143" s="11">
         <v>9</v>
       </c>
+      <c r="E143" s="11">
+        <v>0</v>
+      </c>
       <c r="F143" s="11" t="s">
         <v>683</v>
       </c>
@@ -12962,6 +13019,9 @@
       <c r="D144" s="11">
         <v>5</v>
       </c>
+      <c r="E144" s="11">
+        <v>0</v>
+      </c>
       <c r="F144" s="11" t="s">
         <v>683</v>
       </c>
@@ -12983,6 +13043,9 @@
       <c r="D145" s="11">
         <v>9</v>
       </c>
+      <c r="E145" s="11">
+        <v>0</v>
+      </c>
       <c r="F145" s="11" t="s">
         <v>683</v>
       </c>
@@ -13004,6 +13067,9 @@
       <c r="D146" s="11">
         <v>2</v>
       </c>
+      <c r="E146" s="11">
+        <v>0</v>
+      </c>
       <c r="F146" s="11" t="s">
         <v>685</v>
       </c>
@@ -13178,6 +13244,9 @@
       <c r="C153" s="7">
         <v>1</v>
       </c>
+      <c r="D153" s="7">
+        <v>11</v>
+      </c>
       <c r="E153" s="7">
         <v>5</v>
       </c>
@@ -13199,6 +13268,9 @@
       <c r="C154" s="7">
         <v>2</v>
       </c>
+      <c r="D154" s="7">
+        <v>11</v>
+      </c>
       <c r="E154" s="7">
         <v>15</v>
       </c>
@@ -13220,6 +13292,9 @@
       <c r="C155" s="7">
         <v>2</v>
       </c>
+      <c r="D155" s="7">
+        <v>11</v>
+      </c>
       <c r="E155" s="7">
         <v>5</v>
       </c>
@@ -13241,6 +13316,9 @@
       <c r="C156" s="7">
         <v>1</v>
       </c>
+      <c r="D156" s="7">
+        <v>11</v>
+      </c>
       <c r="E156" s="7">
         <v>5</v>
       </c>
@@ -13259,6 +13337,12 @@
       <c r="B157" s="11" t="s">
         <v>430</v>
       </c>
+      <c r="C157" s="11">
+        <v>1</v>
+      </c>
+      <c r="D157" s="11">
+        <v>1</v>
+      </c>
       <c r="E157" s="11">
         <v>50</v>
       </c>
@@ -13307,6 +13391,12 @@
       <c r="B159" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="C159" s="11">
+        <v>1</v>
+      </c>
+      <c r="D159" s="11">
+        <v>1</v>
+      </c>
       <c r="E159" s="11">
         <v>50</v>
       </c>
@@ -13331,6 +13421,12 @@
       <c r="B160" s="7" t="s">
         <v>430</v>
       </c>
+      <c r="C160" s="7">
+        <v>1</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1</v>
+      </c>
       <c r="E160" s="7">
         <v>35</v>
       </c>
@@ -13348,6 +13444,12 @@
       </c>
       <c r="B161" s="7" t="s">
         <v>430</v>
+      </c>
+      <c r="C161" s="7">
+        <v>1</v>
+      </c>
+      <c r="D161" s="7">
+        <v>1</v>
       </c>
       <c r="E161" s="7">
         <v>15</v>

--- a/MDFS_20 06 22-1.xlsx
+++ b/MDFS_20 06 22-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webdrive.strath.ac.uk/home/82/hwb14182/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBEF65-9CA8-4CD1-852B-ECEE9991A0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAB31C-A4ED-4976-B5E3-C8EA9E1DD2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9461,8 +9461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96219B0D-D89A-4F3E-B056-F6DA5CAE24A2}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10987,6 +10987,9 @@
       </c>
       <c r="B62" s="7" t="s">
         <v>422</v>
+      </c>
+      <c r="C62" s="7">
+        <v>2</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>422</v>

--- a/MDFS_20 06 22-1.xlsx
+++ b/MDFS_20 06 22-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webdrive.strath.ac.uk/home/82/hwb14182/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAB31C-A4ED-4976-B5E3-C8EA9E1DD2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5355BBD6-859F-4FD7-9379-B498CAB18E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="803">
   <si>
     <t>Code</t>
   </si>
@@ -9461,8 +9461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96219B0D-D89A-4F3E-B056-F6DA5CAE24A2}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10466,8 +10466,8 @@
       <c r="C40" s="9">
         <v>1</v>
       </c>
-      <c r="D40" s="9">
-        <v>12</v>
+      <c r="D40" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="H40" s="10">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10508,8 +10508,8 @@
       <c r="C42" s="9">
         <v>2</v>
       </c>
-      <c r="D42" s="9">
-        <v>11</v>
+      <c r="D42" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="H42" s="10">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10529,8 +10529,8 @@
       <c r="C43" s="9">
         <v>1</v>
       </c>
-      <c r="D43" s="9">
-        <v>12</v>
+      <c r="D43" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="H43" s="10">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10571,8 +10571,8 @@
       <c r="C45" s="9">
         <v>2</v>
       </c>
-      <c r="D45" s="9">
-        <v>12</v>
+      <c r="D45" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="H45" s="10">
         <f>SUMIF(Table3[Module],Table3[[#This Row],[Module]],Table3[weight])</f>
@@ -10592,8 +10592,8 @@
       <c r="C46" s="7">
         <v>1</v>
       </c>
-      <c r="D46" s="7">
-        <v>12</v>
+      <c r="D46" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="E46" s="7">
         <v>10</v>
@@ -11162,8 +11162,8 @@
       <c r="C69" s="7">
         <v>2</v>
       </c>
-      <c r="D69" s="7">
-        <v>12</v>
+      <c r="D69" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
@@ -11417,8 +11417,8 @@
       <c r="C79" s="7">
         <v>1</v>
       </c>
-      <c r="D79" s="7">
-        <v>12</v>
+      <c r="D79" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="E79" s="7">
         <v>20</v>
@@ -11639,8 +11639,8 @@
       <c r="C88" s="7">
         <v>2</v>
       </c>
-      <c r="D88" s="7">
-        <v>12</v>
+      <c r="D88" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="E88" s="7">
         <v>10</v>
@@ -12176,8 +12176,8 @@
       <c r="C110" s="7">
         <v>2</v>
       </c>
-      <c r="D110" s="7">
-        <v>22</v>
+      <c r="D110" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="E110" s="7">
         <v>10</v>
@@ -12446,8 +12446,8 @@
       <c r="C121" s="7">
         <v>1</v>
       </c>
-      <c r="D121" s="7">
-        <v>12</v>
+      <c r="D121" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="E121" s="7">
         <v>20</v>
@@ -12494,8 +12494,8 @@
       <c r="C123" s="7">
         <v>2</v>
       </c>
-      <c r="D123" s="7">
-        <v>12</v>
+      <c r="D123" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="E123" s="7">
         <v>40</v>
